--- a/Config/Documents/VPC_2530b_7_22.xlsx
+++ b/Config/Documents/VPC_2530b_7_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenniekiyama\Dropbox\Lunar\VPC\VPC_EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GIP-FCT\Config\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4BC966-7B5C-478D-B8CE-E882B63B6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FA91D-58F0-4A49-87C0-8AFACB6525EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{C3A94F00-46C4-4B6F-8109-6284738D3D4E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="3" xr2:uid="{C3A94F00-46C4-4B6F-8109-6284738D3D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1560,9 +1560,6 @@
     <t>GIP</t>
   </si>
   <si>
-    <t>GP1_GRID_1A_OUT</t>
-  </si>
-  <si>
     <t>GP1_GRID_1A_IN</t>
   </si>
   <si>
@@ -1618,6 +1615,9 @@
   </si>
   <si>
     <t>GP1_VB_COMBINED</t>
+  </si>
+  <si>
+    <t>TP</t>
   </si>
 </sst>
 </file>
@@ -2849,44 +2849,44 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" customWidth="1"/>
-    <col min="4" max="4" width="15.265625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="7" width="13.265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="11.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="13.41796875" customWidth="1"/>
+    <col min="4" max="4" width="15.26171875" customWidth="1"/>
+    <col min="5" max="5" width="14.26171875" customWidth="1"/>
+    <col min="6" max="7" width="13.26171875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="9" max="9" width="11.734375" style="3" customWidth="1"/>
     <col min="10" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.73046875" customWidth="1"/>
+    <col min="11" max="11" width="12.734375" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.265625" customWidth="1"/>
-    <col min="14" max="14" width="13.265625" customWidth="1"/>
-    <col min="15" max="15" width="13.265625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.59765625" customWidth="1"/>
-    <col min="18" max="18" width="7.3984375" customWidth="1"/>
-    <col min="19" max="20" width="12.3984375" customWidth="1"/>
-    <col min="21" max="21" width="14.86328125" customWidth="1"/>
-    <col min="22" max="22" width="13.86328125" customWidth="1"/>
-    <col min="23" max="23" width="13.3984375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.59765625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="17.1328125" customWidth="1"/>
+    <col min="13" max="13" width="15.26171875" customWidth="1"/>
+    <col min="14" max="14" width="13.26171875" customWidth="1"/>
+    <col min="15" max="15" width="13.26171875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.26171875" customWidth="1"/>
+    <col min="17" max="17" width="16.578125" customWidth="1"/>
+    <col min="18" max="18" width="7.41796875" customWidth="1"/>
+    <col min="19" max="20" width="12.41796875" customWidth="1"/>
+    <col min="21" max="21" width="14.83984375" customWidth="1"/>
+    <col min="22" max="22" width="13.83984375" customWidth="1"/>
+    <col min="23" max="23" width="13.41796875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.578125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="N2" s="7" t="s">
         <v>439</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -2955,7 +2955,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="15" t="s">
         <v>426</v>
@@ -3020,7 +3020,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
@@ -3064,7 +3064,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -3277,7 +3277,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>3</v>
@@ -3348,7 +3348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>21</v>
@@ -3419,7 +3419,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>22</v>
@@ -3490,7 +3490,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>27</v>
@@ -3561,7 +3561,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>28</v>
@@ -3632,7 +3632,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
@@ -3703,7 +3703,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>33</v>
@@ -3774,7 +3774,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
@@ -3790,7 +3790,7 @@
       <c r="S18" s="7"/>
       <c r="X18" s="9"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
@@ -3830,7 +3830,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>36</v>
@@ -3901,7 +3901,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>37</v>
@@ -3972,7 +3972,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>40</v>
@@ -4043,7 +4043,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>41</v>
@@ -4114,7 +4114,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>46</v>
@@ -4185,7 +4185,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>47</v>
@@ -4256,7 +4256,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
         <v>52</v>
@@ -4327,7 +4327,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
         <v>53</v>
@@ -4398,7 +4398,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
         <v>54</v>
@@ -4469,7 +4469,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="s">
         <v>55</v>
@@ -4540,7 +4540,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="G30" s="9"/>
@@ -4554,7 +4554,7 @@
       <c r="S30" s="7"/>
       <c r="X30" s="9"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="F31" s="11" t="s">
@@ -4586,7 +4586,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="7" t="s">
         <v>63</v>
@@ -4655,7 +4655,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
         <v>64</v>
@@ -4724,7 +4724,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>65</v>
@@ -4793,7 +4793,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="7" t="s">
         <v>66</v>
@@ -4862,7 +4862,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="7" t="s">
         <v>67</v>
@@ -4931,7 +4931,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="s">
         <v>68</v>
@@ -5000,7 +5000,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="7" t="s">
         <v>69</v>
@@ -5069,7 +5069,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="s">
         <v>70</v>
@@ -5138,7 +5138,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
         <v>71</v>
@@ -5202,7 +5202,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
         <v>72</v>
@@ -5266,7 +5266,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="G42" s="9"/>
@@ -5280,7 +5280,7 @@
       <c r="S42" s="7"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="G43" s="9"/>
@@ -5294,7 +5294,7 @@
       <c r="S43" s="7"/>
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="F44" s="11" t="s">
@@ -5318,7 +5318,7 @@
       <c r="S44" s="7"/>
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
         <v>93</v>
@@ -5369,7 +5369,7 @@
       <c r="U45" s="1"/>
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
         <v>94</v>
@@ -5420,7 +5420,7 @@
       <c r="U46" s="1"/>
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>95</v>
@@ -5470,7 +5470,7 @@
       <c r="S47" s="7"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
         <v>96</v>
@@ -5520,7 +5520,7 @@
       <c r="S48" s="7"/>
       <c r="X48" s="9"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
         <v>97</v>
@@ -5570,7 +5570,7 @@
       <c r="S49" s="7"/>
       <c r="X49" s="9"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
         <v>98</v>
@@ -5620,7 +5620,7 @@
       <c r="S50" s="7"/>
       <c r="X50" s="9"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
         <v>99</v>
@@ -5670,7 +5670,7 @@
       <c r="S51" s="7"/>
       <c r="X51" s="9"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="7" t="s">
         <v>100</v>
@@ -5720,7 +5720,7 @@
       <c r="S52" s="7"/>
       <c r="X52" s="9"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
         <v>103</v>
@@ -5770,7 +5770,7 @@
       <c r="S53" s="7"/>
       <c r="X53" s="9"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="7" t="s">
         <v>104</v>
@@ -5820,7 +5820,7 @@
       <c r="S54" s="7"/>
       <c r="X54" s="9"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="G55" s="9"/>
@@ -5834,7 +5834,7 @@
       <c r="S55" s="7"/>
       <c r="X55" s="9"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="G56" s="9"/>
@@ -5849,7 +5849,7 @@
       <c r="W56" s="4"/>
       <c r="X56" s="9"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="F57" s="12" t="s">
@@ -5874,7 +5874,7 @@
       <c r="S57" s="7"/>
       <c r="X57" s="9"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="7" t="s">
         <v>123</v>
@@ -5924,7 +5924,7 @@
       <c r="S58" s="7"/>
       <c r="X58" s="9"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
         <v>124</v>
@@ -5974,7 +5974,7 @@
       <c r="S59" s="7"/>
       <c r="X59" s="9"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
         <v>125</v>
@@ -6024,7 +6024,7 @@
       <c r="S60" s="7"/>
       <c r="X60" s="9"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
         <v>126</v>
@@ -6074,7 +6074,7 @@
       <c r="S61" s="7"/>
       <c r="X61" s="9"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="7" t="s">
         <v>127</v>
@@ -6124,7 +6124,7 @@
       <c r="S62" s="7"/>
       <c r="X62" s="9"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="7" t="s">
         <v>128</v>
@@ -6174,7 +6174,7 @@
       <c r="S63" s="7"/>
       <c r="X63" s="9"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
         <v>129</v>
@@ -6224,7 +6224,7 @@
       <c r="S64" s="7"/>
       <c r="X64" s="9"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
         <v>130</v>
@@ -6274,7 +6274,7 @@
       <c r="S65" s="7"/>
       <c r="X65" s="9"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
         <v>131</v>
@@ -6324,7 +6324,7 @@
       <c r="S66" s="7"/>
       <c r="X66" s="9"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
         <v>132</v>
@@ -6374,16 +6374,16 @@
       <c r="S67" s="7"/>
       <c r="X67" s="9"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="H68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F70" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>396</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>399</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>403</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>402</v>
       </c>
@@ -6439,44 +6439,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E534C8D-CAFE-4A99-BE05-C83403122DEC}">
   <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.86328125" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.734375" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" customWidth="1"/>
+    <col min="11" max="12" width="13.26171875" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" customWidth="1"/>
+    <col min="15" max="15" width="12.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" customWidth="1"/>
+    <col min="18" max="18" width="12.578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="C2" s="22">
         <v>44663</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -6527,7 +6527,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -6591,7 +6591,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -6934,7 +6934,7 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="E18" s="9"/>
@@ -7096,7 +7096,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -7127,7 +7127,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -7519,7 +7519,7 @@
       </c>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -7568,7 +7568,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
@@ -7632,7 +7632,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="E31" s="16" t="s">
@@ -7661,7 +7661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="E42" s="9"/>
@@ -8155,7 +8155,7 @@
       <c r="O42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="E43" s="9"/>
@@ -8169,7 +8169,7 @@
       <c r="O43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="E44" s="16" t="s">
@@ -8193,7 +8193,7 @@
       <c r="O44" s="1"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -8232,7 +8232,7 @@
       <c r="P45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -8271,7 +8271,7 @@
       <c r="P46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>95</v>
@@ -8309,7 +8309,7 @@
       <c r="O47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -8347,7 +8347,7 @@
       <c r="O48" s="1"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>97</v>
@@ -8385,7 +8385,7 @@
       <c r="O49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -8423,7 +8423,7 @@
       <c r="O50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -8461,7 +8461,7 @@
       <c r="O51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>100</v>
@@ -8499,7 +8499,7 @@
       <c r="O52" s="1"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>103</v>
@@ -8537,7 +8537,7 @@
       <c r="O53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -8575,7 +8575,7 @@
       <c r="O54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="E55" s="9"/>
@@ -8589,7 +8589,7 @@
       <c r="O55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="E56" s="9"/>
@@ -8603,7 +8603,7 @@
       <c r="O56" s="1"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="E57" s="16" t="s">
@@ -8627,7 +8627,7 @@
       <c r="O57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -8665,7 +8665,7 @@
       <c r="O58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>124</v>
@@ -8703,7 +8703,7 @@
       <c r="O59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>125</v>
@@ -8741,7 +8741,7 @@
       <c r="O60" s="1"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>126</v>
@@ -8779,7 +8779,7 @@
       <c r="O61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -8817,7 +8817,7 @@
       <c r="O62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -8855,7 +8855,7 @@
       <c r="O63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>129</v>
@@ -8893,7 +8893,7 @@
       <c r="O64" s="1"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>130</v>
@@ -8931,7 +8931,7 @@
       <c r="O65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>131</v>
@@ -8969,7 +8969,7 @@
       <c r="O66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>132</v>
@@ -9007,10 +9007,10 @@
       <c r="O67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>397</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>400</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>404</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>405</v>
       </c>
@@ -9057,40 +9057,40 @@
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.86328125" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.734375" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" customWidth="1"/>
+    <col min="11" max="12" width="13.26171875" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" customWidth="1"/>
+    <col min="15" max="15" width="12.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" customWidth="1"/>
+    <col min="18" max="18" width="12.578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="C2" s="22">
         <v>44663</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -9141,7 +9141,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -9205,7 +9205,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="E18" s="9"/>
@@ -9690,7 +9690,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -9721,7 +9721,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -10003,7 +10003,7 @@
       </c>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
@@ -10204,7 +10204,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="E31" s="16" t="s">
@@ -10233,7 +10233,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -10280,7 +10280,7 @@
       </c>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="E42" s="9"/>
@@ -10707,7 +10707,7 @@
       <c r="O42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="E43" s="9"/>
@@ -10721,7 +10721,7 @@
       <c r="O43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="E44" s="16" t="s">
@@ -10745,7 +10745,7 @@
       <c r="O44" s="1"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -10784,7 +10784,7 @@
       <c r="P45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -10823,7 +10823,7 @@
       <c r="P46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>95</v>
@@ -10861,7 +10861,7 @@
       <c r="O47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -10899,7 +10899,7 @@
       <c r="O48" s="1"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>97</v>
@@ -10937,7 +10937,7 @@
       <c r="O49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -10975,7 +10975,7 @@
       <c r="O50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -11013,7 +11013,7 @@
       <c r="O51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>100</v>
@@ -11051,7 +11051,7 @@
       <c r="O52" s="1"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>103</v>
@@ -11089,7 +11089,7 @@
       <c r="O53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -11127,7 +11127,7 @@
       <c r="O54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="E55" s="9"/>
@@ -11141,7 +11141,7 @@
       <c r="O55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="E56" s="9"/>
@@ -11155,7 +11155,7 @@
       <c r="O56" s="1"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="E57" s="16" t="s">
@@ -11179,7 +11179,7 @@
       <c r="O57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -11217,7 +11217,7 @@
       <c r="O58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>124</v>
@@ -11255,7 +11255,7 @@
       <c r="O59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>125</v>
@@ -11293,7 +11293,7 @@
       <c r="O60" s="1"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>126</v>
@@ -11331,7 +11331,7 @@
       <c r="O61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -11369,7 +11369,7 @@
       <c r="O62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -11407,7 +11407,7 @@
       <c r="O63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>129</v>
@@ -11445,7 +11445,7 @@
       <c r="O64" s="1"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>130</v>
@@ -11483,7 +11483,7 @@
       <c r="O65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>131</v>
@@ -11521,7 +11521,7 @@
       <c r="O66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>132</v>
@@ -11559,10 +11559,10 @@
       <c r="O67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>397</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>400</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>404</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>405</v>
       </c>
@@ -11605,44 +11605,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFAEE26-8A5C-4F36-9E9A-EBBBCEFA4134}">
   <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M67"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.06640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.05078125" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.86328125" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.734375" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" customWidth="1"/>
+    <col min="11" max="12" width="13.26171875" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" customWidth="1"/>
+    <col min="15" max="15" width="12.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" customWidth="1"/>
+    <col min="18" max="18" width="12.578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="C2" s="22" t="s">
         <v>504</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -11693,7 +11693,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -11755,7 +11755,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -11770,7 +11770,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -11864,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -11943,7 +11943,7 @@
       </c>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="E18" s="9"/>
@@ -12240,7 +12240,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -12269,7 +12269,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -12284,7 +12284,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -12378,7 +12378,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -12410,7 +12410,7 @@
       </c>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -12472,7 +12472,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -12566,7 +12566,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -12645,7 +12645,7 @@
       </c>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
@@ -12754,7 +12754,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="E31" s="16" t="s">
@@ -12781,7 +12781,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -12796,7 +12796,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -12828,7 +12828,7 @@
       </c>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -12875,7 +12875,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -12890,7 +12890,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -12984,7 +12984,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -13063,7 +13063,7 @@
       </c>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -13078,7 +13078,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -13172,7 +13172,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="E42" s="9"/>
@@ -13255,7 +13255,7 @@
       <c r="O42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="E43" s="9"/>
@@ -13269,7 +13269,7 @@
       <c r="O43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="E44" s="16" t="s">
@@ -13291,7 +13291,7 @@
       <c r="O44" s="1"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -13306,7 +13306,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -13328,7 +13328,7 @@
       <c r="P45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -13365,7 +13365,7 @@
       <c r="P46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>95</v>
@@ -13380,7 +13380,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -13401,7 +13401,7 @@
       <c r="O47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -13437,7 +13437,7 @@
       <c r="O48" s="1"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>97</v>
@@ -13452,7 +13452,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -13473,7 +13473,7 @@
       <c r="O49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -13509,7 +13509,7 @@
       <c r="O50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -13524,7 +13524,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -13545,7 +13545,7 @@
       <c r="O51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>100</v>
@@ -13581,7 +13581,7 @@
       <c r="O52" s="1"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>103</v>
@@ -13617,7 +13617,7 @@
       <c r="O53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -13653,7 +13653,7 @@
       <c r="O54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="E55" s="9"/>
@@ -13667,7 +13667,7 @@
       <c r="O55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="E56" s="9"/>
@@ -13681,7 +13681,7 @@
       <c r="O56" s="1"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="E57" s="16" t="s">
@@ -13703,7 +13703,7 @@
       <c r="O57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -13718,7 +13718,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -13739,7 +13739,7 @@
       <c r="O58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>124</v>
@@ -13775,7 +13775,7 @@
       <c r="O59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>125</v>
@@ -13790,7 +13790,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -13811,7 +13811,7 @@
       <c r="O60" s="1"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>126</v>
@@ -13847,7 +13847,7 @@
       <c r="O61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -13862,7 +13862,7 @@
         <v>6</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -13883,7 +13883,7 @@
       <c r="O62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -13919,7 +13919,7 @@
       <c r="O63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>129</v>
@@ -13934,7 +13934,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -13955,7 +13955,7 @@
       <c r="O64" s="1"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>130</v>
@@ -13991,7 +13991,7 @@
       <c r="O65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>131</v>
@@ -14006,7 +14006,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -14027,7 +14027,7 @@
       <c r="O66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>132</v>
@@ -14063,10 +14063,10 @@
       <c r="O67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>397</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>400</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>404</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>405</v>
       </c>
@@ -14110,43 +14110,43 @@
   <dimension ref="A2:S74"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.86328125" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.734375" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" customWidth="1"/>
+    <col min="11" max="12" width="13.26171875" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" customWidth="1"/>
+    <col min="15" max="15" width="12.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" customWidth="1"/>
+    <col min="18" max="18" width="12.578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="C2" s="22">
         <v>44663</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -14197,7 +14197,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -14261,7 +14261,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -14310,7 +14310,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -14359,7 +14359,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -14506,7 +14506,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -14555,7 +14555,7 @@
       </c>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="E18" s="9"/>
@@ -14766,7 +14766,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -14797,7 +14797,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -14846,7 +14846,7 @@
       </c>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -15140,7 +15140,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -15287,7 +15287,7 @@
       </c>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
@@ -15302,7 +15302,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="E31" s="16" t="s">
@@ -15331,7 +15331,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -15380,7 +15380,7 @@
       </c>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -15527,7 +15527,7 @@
       </c>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -15674,7 +15674,7 @@
       </c>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -15811,7 +15811,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="E42" s="9"/>
@@ -15825,7 +15825,7 @@
       <c r="O42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="E43" s="9"/>
@@ -15839,7 +15839,7 @@
       <c r="O43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="E44" s="16" t="s">
@@ -15863,7 +15863,7 @@
       <c r="O44" s="1"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -15902,7 +15902,7 @@
       <c r="P45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -15941,7 +15941,7 @@
       <c r="P46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>95</v>
@@ -15979,7 +15979,7 @@
       <c r="O47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -16017,7 +16017,7 @@
       <c r="O48" s="1"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>97</v>
@@ -16055,7 +16055,7 @@
       <c r="O49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -16093,7 +16093,7 @@
       <c r="O50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -16131,7 +16131,7 @@
       <c r="O51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>100</v>
@@ -16169,7 +16169,7 @@
       <c r="O52" s="1"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>103</v>
@@ -16207,7 +16207,7 @@
       <c r="O53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -16245,7 +16245,7 @@
       <c r="O54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="E55" s="9"/>
@@ -16259,7 +16259,7 @@
       <c r="O55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="E56" s="9"/>
@@ -16273,7 +16273,7 @@
       <c r="O56" s="1"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="E57" s="16" t="s">
@@ -16297,7 +16297,7 @@
       <c r="O57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -16335,7 +16335,7 @@
       <c r="O58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>124</v>
@@ -16373,7 +16373,7 @@
       <c r="O59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>125</v>
@@ -16411,7 +16411,7 @@
       <c r="O60" s="1"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>126</v>
@@ -16449,7 +16449,7 @@
       <c r="O61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -16487,7 +16487,7 @@
       <c r="O62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -16525,7 +16525,7 @@
       <c r="O63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>129</v>
@@ -16563,7 +16563,7 @@
       <c r="O64" s="1"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>130</v>
@@ -16601,7 +16601,7 @@
       <c r="O65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>131</v>
@@ -16639,7 +16639,7 @@
       <c r="O66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>132</v>
@@ -16677,10 +16677,10 @@
       <c r="O67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>397</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>400</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>404</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>405</v>
       </c>
@@ -16727,40 +16727,40 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83984375" customWidth="1"/>
+    <col min="3" max="3" width="15.26171875" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.734375" style="3" customWidth="1"/>
     <col min="7" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.73046875" customWidth="1"/>
-    <col min="10" max="10" width="15.265625" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" customWidth="1"/>
-    <col min="16" max="16" width="14.86328125" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.734375" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" customWidth="1"/>
+    <col min="11" max="12" width="13.26171875" customWidth="1"/>
+    <col min="13" max="13" width="16.578125" customWidth="1"/>
+    <col min="14" max="14" width="13.1015625" customWidth="1"/>
+    <col min="15" max="15" width="12.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" customWidth="1"/>
+    <col min="17" max="17" width="13.83984375" customWidth="1"/>
+    <col min="18" max="18" width="12.578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.75">
       <c r="C2" s="22">
         <v>44663</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="10" t="s">
         <v>429</v>
@@ -16811,7 +16811,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="E7" s="16" t="s">
@@ -16875,7 +16875,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -17120,7 +17120,7 @@
       </c>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="21" t="s">
         <v>32</v>
@@ -17316,7 +17316,7 @@
       </c>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="E18" s="9"/>
@@ -17380,7 +17380,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="E19" s="16" t="s">
@@ -17411,7 +17411,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>37</v>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -17558,7 +17558,7 @@
       </c>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>46</v>
@@ -17656,7 +17656,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>47</v>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -17754,7 +17754,7 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>55</v>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="6"/>
       <c r="B30" s="1"/>
       <c r="E30" s="9"/>
@@ -17916,7 +17916,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="E31" s="16" t="s">
@@ -17945,7 +17945,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>63</v>
@@ -17994,7 +17994,7 @@
       </c>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>65</v>
@@ -18092,7 +18092,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -18141,7 +18141,7 @@
       </c>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>69</v>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>70</v>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="S40" s="17"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>72</v>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="6"/>
       <c r="B42" s="1"/>
       <c r="E42" s="9"/>
@@ -18439,7 +18439,7 @@
       <c r="O42" s="1"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="6"/>
       <c r="B43" s="1"/>
       <c r="E43" s="9"/>
@@ -18453,7 +18453,7 @@
       <c r="O43" s="1"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="6"/>
       <c r="B44" s="1"/>
       <c r="E44" s="16" t="s">
@@ -18477,7 +18477,7 @@
       <c r="O44" s="1"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>93</v>
@@ -18516,7 +18516,7 @@
       <c r="P45" s="1"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
@@ -18555,7 +18555,7 @@
       <c r="P46" s="1"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>95</v>
@@ -18593,7 +18593,7 @@
       <c r="O47" s="1"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>96</v>
@@ -18631,7 +18631,7 @@
       <c r="O48" s="1"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>97</v>
@@ -18669,7 +18669,7 @@
       <c r="O49" s="1"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>98</v>
@@ -18707,7 +18707,7 @@
       <c r="O50" s="1"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>99</v>
@@ -18745,7 +18745,7 @@
       <c r="O51" s="1"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>100</v>
@@ -18783,7 +18783,7 @@
       <c r="O52" s="1"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>103</v>
@@ -18821,7 +18821,7 @@
       <c r="O53" s="1"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>104</v>
@@ -18859,7 +18859,7 @@
       <c r="O54" s="1"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="E55" s="9"/>
@@ -18873,7 +18873,7 @@
       <c r="O55" s="1"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="E56" s="9"/>
@@ -18887,7 +18887,7 @@
       <c r="O56" s="1"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="E57" s="16" t="s">
@@ -18911,7 +18911,7 @@
       <c r="O57" s="1"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>123</v>
@@ -18949,7 +18949,7 @@
       <c r="O58" s="1"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>124</v>
@@ -18987,7 +18987,7 @@
       <c r="O59" s="1"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>125</v>
@@ -19025,7 +19025,7 @@
       <c r="O60" s="1"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>126</v>
@@ -19063,7 +19063,7 @@
       <c r="O61" s="1"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>127</v>
@@ -19101,7 +19101,7 @@
       <c r="O62" s="1"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>128</v>
@@ -19139,7 +19139,7 @@
       <c r="O63" s="1"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>129</v>
@@ -19177,7 +19177,7 @@
       <c r="O64" s="1"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>130</v>
@@ -19215,7 +19215,7 @@
       <c r="O65" s="1"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>131</v>
@@ -19253,7 +19253,7 @@
       <c r="O66" s="1"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>132</v>
@@ -19291,10 +19291,10 @@
       <c r="O67" s="1"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="M68" s="1"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>397</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>400</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>404</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>405</v>
       </c>

--- a/Config/Documents/VPC_2530b_7_22.xlsx
+++ b/Config/Documents/VPC_2530b_7_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\GIP-FCT\Config\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FA91D-58F0-4A49-87C0-8AFACB6525EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F3184-9F2B-483A-BD72-DF47723FBE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="3" xr2:uid="{C3A94F00-46C4-4B6F-8109-6284738D3D4E}"/>
+    <workbookView xWindow="1404" yWindow="1914" windowWidth="17280" windowHeight="12798" activeTab="3" xr2:uid="{C3A94F00-46C4-4B6F-8109-6284738D3D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1617,7 +1617,7 @@
     <t>GP1_VB_COMBINED</t>
   </si>
   <si>
-    <t>TP</t>
+    <t>GP1_GRID_1A_OUT</t>
   </si>
 </sst>
 </file>
@@ -11605,8 +11605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFAEE26-8A5C-4F36-9E9A-EBBBCEFA4134}">
   <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F20:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
